--- a/Code/Results/Cases/Case_2_101/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_101/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9255833113384426</v>
+        <v>0.663680528223864</v>
       </c>
       <c r="C2">
-        <v>0.1037391526390223</v>
+        <v>0.05609283999264392</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.09941558040285869</v>
+        <v>0.07718504420413552</v>
       </c>
       <c r="F2">
-        <v>6.790146423246966</v>
+        <v>5.062899941096617</v>
       </c>
       <c r="G2">
-        <v>0.0008559516541623251</v>
+        <v>0.002591149001256411</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,16 +445,16 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.718934353417751</v>
+        <v>0.397065607520716</v>
       </c>
       <c r="K2">
-        <v>0.9369411944829551</v>
+        <v>0.6413241606710471</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.04725356711147199</v>
+        <v>0.1626941586050012</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8067754679177028</v>
+        <v>0.638832316320844</v>
       </c>
       <c r="C3">
-        <v>0.08891839891826692</v>
+        <v>0.05331536422701788</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.08328482527400993</v>
+        <v>0.07777014417829164</v>
       </c>
       <c r="F3">
-        <v>6.069334228632982</v>
+        <v>4.866717367005805</v>
       </c>
       <c r="G3">
-        <v>0.0008644233683434446</v>
+        <v>0.00259592364195512</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,16 +492,16 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.6426699048463433</v>
+        <v>0.3742968125007451</v>
       </c>
       <c r="K3">
-        <v>0.8138880044445216</v>
+        <v>0.616148438210729</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.0375540942201873</v>
+        <v>0.169405289640185</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7356036308831619</v>
+        <v>0.6241281267133729</v>
       </c>
       <c r="C4">
-        <v>0.08009020044110571</v>
+        <v>0.05167752333453279</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.07380737207514798</v>
+        <v>0.07830233677940512</v>
       </c>
       <c r="F4">
-        <v>5.635639294700468</v>
+        <v>4.747026510766517</v>
       </c>
       <c r="G4">
-        <v>0.00086974858195064</v>
+        <v>0.002599006298309147</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,16 +539,16 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.5966342128903648</v>
+        <v>0.3602436443325701</v>
       </c>
       <c r="K4">
-        <v>0.7402515345085021</v>
+        <v>0.601265768515276</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.0322992398090669</v>
+        <v>0.17390223642224</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7069962182939946</v>
+        <v>0.6182746047884962</v>
       </c>
       <c r="C5">
-        <v>0.07655221124582567</v>
+        <v>0.05102694645692907</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.07003762954493453</v>
+        <v>0.07856234710181198</v>
       </c>
       <c r="F5">
-        <v>5.460821634629013</v>
+        <v>4.698438562016946</v>
       </c>
       <c r="G5">
-        <v>0.0008719515963237693</v>
+        <v>0.002600300614242927</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,16 +586,16 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.5780378402894399</v>
+        <v>0.3544976323222357</v>
       </c>
       <c r="K5">
-        <v>0.710670115469469</v>
+        <v>0.5953450789477301</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.0303155543637903</v>
+        <v>0.1758291239060146</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7022684699910542</v>
+        <v>0.6173109879977119</v>
       </c>
       <c r="C6">
-        <v>0.07596808808608557</v>
+        <v>0.0509199330842165</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.069416837664523</v>
+        <v>0.07860811683959668</v>
       </c>
       <c r="F6">
-        <v>5.431900301351561</v>
+        <v>4.690381705636327</v>
       </c>
       <c r="G6">
-        <v>0.0008723194472356764</v>
+        <v>0.002600517839800272</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,16 +633,16 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.574958831914941</v>
+        <v>0.3535423246287905</v>
       </c>
       <c r="K6">
-        <v>0.7057823208935474</v>
+        <v>0.5943706415615679</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.02999518568186943</v>
+        <v>0.1761547723779042</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7352162834044691</v>
+        <v>0.6240486236306708</v>
       </c>
       <c r="C7">
-        <v>0.0800422556640541</v>
+        <v>0.05166868134236324</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.07375617659672429</v>
+        <v>0.0783056691694064</v>
       </c>
       <c r="F7">
-        <v>5.633274281812191</v>
+        <v>4.746370486720821</v>
       </c>
       <c r="G7">
-        <v>0.0008697781567423297</v>
+        <v>0.002599023599268165</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,16 +680,16 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.5963827978998069</v>
+        <v>0.3601662306003561</v>
       </c>
       <c r="K7">
-        <v>0.7398509350343261</v>
+        <v>0.6011853372159521</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.03227187161572687</v>
+        <v>0.1739278414674299</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8842173929127455</v>
+        <v>0.6549978773882685</v>
       </c>
       <c r="C8">
-        <v>0.09856698870046898</v>
+        <v>0.0551210702329854</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.09375561446692515</v>
+        <v>0.07735068191974648</v>
       </c>
       <c r="F8">
-        <v>6.539564844955436</v>
+        <v>4.995093762578335</v>
       </c>
       <c r="G8">
-        <v>0.0008588482423889307</v>
+        <v>0.002592764037859781</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,16 +727,16 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.6924518530913133</v>
+        <v>0.3892295571644553</v>
       </c>
       <c r="K8">
-        <v>0.8940785946048777</v>
+        <v>0.6325238172265131</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.04375202502758491</v>
+        <v>0.1649298918784243</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.193084160296706</v>
+        <v>0.7200989714193327</v>
       </c>
       <c r="C9">
-        <v>0.1374969706500053</v>
+        <v>0.06243336433900026</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1371251252975547</v>
+        <v>0.07686615645343409</v>
       </c>
       <c r="F9">
-        <v>8.403446196008957</v>
+        <v>5.489195657756426</v>
       </c>
       <c r="G9">
-        <v>0.0008383006270082406</v>
+        <v>0.00258168100224504</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,16 +774,16 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.8889117095569361</v>
+        <v>0.4456845865418586</v>
       </c>
       <c r="K9">
-        <v>1.214596734160494</v>
+        <v>0.6985731764152945</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.07277216336232684</v>
+        <v>0.1502832021244878</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.434255566677479</v>
+        <v>0.7706574354922111</v>
       </c>
       <c r="C10">
-        <v>0.1683988516335972</v>
+        <v>0.06814568469188487</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1727471615013769</v>
+        <v>0.07737900287082411</v>
       </c>
       <c r="F10">
-        <v>9.851346488024973</v>
+        <v>5.856510694280814</v>
       </c>
       <c r="G10">
-        <v>0.0008235959066724272</v>
+        <v>0.00257425618660263</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,16 +821,16 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>1.041023009905729</v>
+        <v>0.4868948686802241</v>
       </c>
       <c r="K10">
-        <v>1.465627829992002</v>
+        <v>0.7499489435336955</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.09959356764703919</v>
+        <v>0.1413678874630193</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.54813409019286</v>
+        <v>0.7942596460384834</v>
       </c>
       <c r="C11">
-        <v>0.183146143812138</v>
+        <v>0.07082031444159043</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1900997636338495</v>
+        <v>0.07780590753381134</v>
       </c>
       <c r="F11">
-        <v>10.53387412894989</v>
+        <v>6.024640007059133</v>
       </c>
       <c r="G11">
-        <v>0.0008169527268466214</v>
+        <v>0.002571032456447979</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1.112665677221145</v>
+        <v>0.5055978666854628</v>
       </c>
       <c r="K11">
-        <v>1.5843943906101</v>
+        <v>0.7739508774728279</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.1134057792048111</v>
+        <v>0.1377168170968464</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.59196090855545</v>
+        <v>0.8032845343510928</v>
       </c>
       <c r="C12">
-        <v>0.1888485897465131</v>
+        <v>0.07184422804166957</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1968691271037919</v>
+        <v>0.07799581044957549</v>
       </c>
       <c r="F12">
-        <v>10.79643184166673</v>
+        <v>6.088462227659818</v>
       </c>
       <c r="G12">
-        <v>0.0008144399941953588</v>
+        <v>0.002569833694270033</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,16 +915,16 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1.140221328380392</v>
+        <v>0.512674937000952</v>
       </c>
       <c r="K12">
-        <v>1.630142258270638</v>
+        <v>0.7831312883492103</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.118909859731593</v>
+        <v>0.1363927686342503</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.582488907752889</v>
+        <v>0.8013369741522354</v>
       </c>
       <c r="C13">
-        <v>0.1876148884673796</v>
+        <v>0.07162321428810969</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1954018134054927</v>
+        <v>0.07795364885959799</v>
       </c>
       <c r="F13">
-        <v>10.7396912906126</v>
+        <v>6.074709961393125</v>
       </c>
       <c r="G13">
-        <v>0.0008149810927679394</v>
+        <v>0.002570090893085165</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,16 +962,16 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1.134266464677296</v>
+        <v>0.5111509860451804</v>
       </c>
       <c r="K13">
-        <v>1.620253193841961</v>
+        <v>0.7811500464934227</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.1177115368637054</v>
+        <v>0.1366753171004262</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.551724998778553</v>
+        <v>0.7950003773643459</v>
       </c>
       <c r="C14">
-        <v>0.1836128051342456</v>
+        <v>0.07090432930617396</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1906524982608246</v>
+        <v>0.07782096259661841</v>
       </c>
       <c r="F14">
-        <v>10.55538856569933</v>
+        <v>6.029887550419119</v>
       </c>
       <c r="G14">
-        <v>0.0008167459679729834</v>
+        <v>0.002570933393359072</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,16 +1009,16 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1.114923689730915</v>
+        <v>0.5061802032765002</v>
       </c>
       <c r="K14">
-        <v>1.588141864171348</v>
+        <v>0.7747043196327184</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.1138528511831431</v>
+        <v>0.1376067116666597</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.532976181943752</v>
+        <v>0.7911304069853031</v>
       </c>
       <c r="C15">
-        <v>0.1811773836879951</v>
+        <v>0.07046544019416956</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1877703136601347</v>
+        <v>0.07774337859109437</v>
       </c>
       <c r="F15">
-        <v>10.44305321819064</v>
+        <v>6.002452944076822</v>
       </c>
       <c r="G15">
-        <v>0.0008178272621383934</v>
+        <v>0.002571452309756112</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>1.103133579266029</v>
+        <v>0.503134786895572</v>
       </c>
       <c r="K15">
-        <v>1.568577231773673</v>
+        <v>0.7707680493541602</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.1115263090893226</v>
+        <v>0.1381848512019808</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.426905774235621</v>
+        <v>0.7691271539270588</v>
       </c>
       <c r="C16">
-        <v>0.167450501750082</v>
+        <v>0.06797243484888327</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1716389447128144</v>
+        <v>0.07735503385477926</v>
       </c>
       <c r="F16">
-        <v>9.807276756986937</v>
+        <v>5.845544432214496</v>
       </c>
       <c r="G16">
-        <v>0.0008240306740663476</v>
+        <v>0.002574469949735584</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,16 +1103,16 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>1.036396320116097</v>
+        <v>0.4856717835884581</v>
       </c>
       <c r="K16">
-        <v>1.457967689952824</v>
+        <v>0.7483931130071255</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.09872675800615482</v>
+        <v>0.1416146645663066</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.362972098178972</v>
+        <v>0.7557836742610675</v>
       </c>
       <c r="C17">
-        <v>0.1592186583591513</v>
+        <v>0.06646264584871631</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1620588572902335</v>
+        <v>0.07716666965088592</v>
       </c>
       <c r="F17">
-        <v>9.423805851767412</v>
+        <v>5.749555930342751</v>
       </c>
       <c r="G17">
-        <v>0.0008278455760957517</v>
+        <v>0.002576360488160702</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,16 +1150,16 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.9961311892403444</v>
+        <v>0.4749482559206797</v>
       </c>
       <c r="K17">
-        <v>1.391360587336465</v>
+        <v>0.7348288696806833</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.09131500963776773</v>
+        <v>0.143822611712519</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.326584445163093</v>
+        <v>0.7481655730355214</v>
       </c>
       <c r="C18">
-        <v>0.1545475734551474</v>
+        <v>0.06560140568035422</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.156654411275877</v>
+        <v>0.07707652649373742</v>
       </c>
       <c r="F18">
-        <v>9.205444970836481</v>
+        <v>5.694442997075214</v>
       </c>
       <c r="G18">
-        <v>0.0008300443952543454</v>
+        <v>0.002577462365352468</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,16 +1197,16 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.9731969627689807</v>
+        <v>0.468776189882135</v>
       </c>
       <c r="K18">
-        <v>1.353472330151419</v>
+        <v>0.7270864112724382</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.08720070845777528</v>
+        <v>0.1451306208110044</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.314327456180109</v>
+        <v>0.745595939400971</v>
       </c>
       <c r="C19">
-        <v>0.1529764314772279</v>
+        <v>0.06531102811284484</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1548417991429289</v>
+        <v>0.07704911906456502</v>
       </c>
       <c r="F19">
-        <v>9.131871117521285</v>
+        <v>5.675799192780232</v>
       </c>
       <c r="G19">
-        <v>0.0008307897707493566</v>
+        <v>0.002577837934061393</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,16 +1244,16 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.9654684238171143</v>
+        <v>0.4666856884451249</v>
       </c>
       <c r="K19">
-        <v>1.340713293382322</v>
+        <v>0.724475118228753</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.08583205508145753</v>
+        <v>0.14558001562634</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.369737363013002</v>
+        <v>0.75719823673316</v>
       </c>
       <c r="C20">
-        <v>0.1600882374921895</v>
+        <v>0.06662262432820398</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1630675041405212</v>
+        <v>0.07718483492121209</v>
       </c>
       <c r="F20">
-        <v>9.464394632401365</v>
+        <v>5.759763973704452</v>
       </c>
       <c r="G20">
-        <v>0.0008274390237607407</v>
+        <v>0.002576157738628859</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>1.000393670028643</v>
+        <v>0.4760902191629839</v>
       </c>
       <c r="K20">
-        <v>1.398406523848536</v>
+        <v>0.7362666606291555</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.09208832677219014</v>
+        <v>0.1435836307311629</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.560741105905663</v>
+        <v>0.7968592172572926</v>
       </c>
       <c r="C21">
-        <v>0.1847849480748636</v>
+        <v>0.07111518107006987</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1920418121517606</v>
+        <v>0.07785916601609699</v>
       </c>
       <c r="F21">
-        <v>10.60940566130205</v>
+        <v>6.043048713173619</v>
       </c>
       <c r="G21">
-        <v>0.0008162275350392308</v>
+        <v>0.002570685334604822</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>1.120592916370498</v>
+        <v>0.5076403802665084</v>
       </c>
       <c r="K21">
-        <v>1.597551733128483</v>
+        <v>0.7765950997554398</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.1149784414281694</v>
+        <v>0.1373315470442531</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.689733565993635</v>
+        <v>0.8232887463058773</v>
       </c>
       <c r="C22">
-        <v>0.2016242490405205</v>
+        <v>0.07411603615179274</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.2121538432212979</v>
+        <v>0.0784646949896235</v>
       </c>
       <c r="F22">
-        <v>11.38201847640261</v>
+        <v>6.229099888522228</v>
       </c>
       <c r="G22">
-        <v>0.0008089149140354013</v>
+        <v>0.002567236944754715</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,16 +1385,16 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>1.201677214776623</v>
+        <v>0.5282295013017233</v>
       </c>
       <c r="K22">
-        <v>1.732280660911414</v>
+        <v>0.8034851423118994</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.1315588338189073</v>
+        <v>0.1335867946368765</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.620468621601049</v>
+        <v>0.8091360710878348</v>
       </c>
       <c r="C23">
-        <v>0.1925658695524817</v>
+        <v>0.07250845168898934</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.201299581574947</v>
+        <v>0.07812629782966596</v>
       </c>
       <c r="F23">
-        <v>10.96719033973289</v>
+        <v>6.129715647984085</v>
       </c>
       <c r="G23">
-        <v>0.0008128178290801669</v>
+        <v>0.002569065733258047</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,16 +1432,16 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>1.158142050083114</v>
+        <v>0.5172431972825962</v>
       </c>
       <c r="K23">
-        <v>1.659911461400668</v>
+        <v>0.7890844129784398</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.1225454313152436</v>
+        <v>0.1355540855429638</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.366677646121076</v>
+        <v>0.7565585472364376</v>
       </c>
       <c r="C24">
-        <v>0.1596949105493763</v>
+        <v>0.06655027702093719</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1626111756580855</v>
+        <v>0.077176565898462</v>
       </c>
       <c r="F24">
-        <v>9.446037947513247</v>
+        <v>5.755148693078667</v>
       </c>
       <c r="G24">
-        <v>0.0008276228084390228</v>
+        <v>0.002576249355078245</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,16 +1479,16 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.9984659390698596</v>
+        <v>0.4755739593708483</v>
       </c>
       <c r="K24">
-        <v>1.395219802850619</v>
+        <v>0.7356164615663658</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.09173825588857554</v>
+        <v>0.1436915537257644</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.107351341596711</v>
+        <v>0.7020111864763692</v>
       </c>
       <c r="C25">
-        <v>0.1266188179839531</v>
+        <v>0.06039618457617735</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1248318332181526</v>
+        <v>0.07684630222940214</v>
       </c>
       <c r="F25">
-        <v>7.88748908410011</v>
+        <v>5.354804115141405</v>
       </c>
       <c r="G25">
-        <v>0.0008437787230326777</v>
+        <v>0.002584552557468011</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,16 +1526,16 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.8346280630020573</v>
+        <v>0.4304633577392849</v>
       </c>
       <c r="K25">
-        <v>1.125519787964492</v>
+        <v>0.6802082526805862</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.06407998736381693</v>
+        <v>0.153922724756546</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_101/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_101/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.663680528223864</v>
+        <v>0.925583311338471</v>
       </c>
       <c r="C2">
-        <v>0.05609283999264392</v>
+        <v>0.1037391526386955</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.07718504420413552</v>
+        <v>0.09941558040287291</v>
       </c>
       <c r="F2">
-        <v>5.062899941096617</v>
+        <v>6.790146423246853</v>
       </c>
       <c r="G2">
-        <v>0.002591149001256411</v>
+        <v>0.0008559516541933547</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,16 +445,16 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.397065607520716</v>
+        <v>0.7189343534178079</v>
       </c>
       <c r="K2">
-        <v>0.6413241606710471</v>
+        <v>0.9369411944827277</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.1626941586050012</v>
+        <v>0.04725356711145956</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.638832316320844</v>
+        <v>0.8067754679177881</v>
       </c>
       <c r="C3">
-        <v>0.05331536422701788</v>
+        <v>0.08891839891873587</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.07777014417829164</v>
+        <v>0.08328482527399572</v>
       </c>
       <c r="F3">
-        <v>4.866717367005805</v>
+        <v>6.069334228632982</v>
       </c>
       <c r="G3">
-        <v>0.00259592364195512</v>
+        <v>0.0008644233684702455</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,16 +492,16 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.3742968125007451</v>
+        <v>0.6426699048466418</v>
       </c>
       <c r="K3">
-        <v>0.616148438210729</v>
+        <v>0.8138880044446353</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.169405289640185</v>
+        <v>0.03755409422021749</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6241281267133729</v>
+        <v>0.7356036308831051</v>
       </c>
       <c r="C4">
-        <v>0.05167752333453279</v>
+        <v>0.08009020044113413</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.07830233677940512</v>
+        <v>0.07380737207513022</v>
       </c>
       <c r="F4">
-        <v>4.747026510766517</v>
+        <v>5.635639294700439</v>
       </c>
       <c r="G4">
-        <v>0.002599006298309147</v>
+        <v>0.0008697485818387466</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,16 +539,16 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.3602436443325701</v>
+        <v>0.5966342128903079</v>
       </c>
       <c r="K4">
-        <v>0.601265768515276</v>
+        <v>0.74025153450836</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.17390223642224</v>
+        <v>0.03229923980908822</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6182746047884962</v>
+        <v>0.7069962182947336</v>
       </c>
       <c r="C5">
-        <v>0.05102694645692907</v>
+        <v>0.07655221124643674</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.07856234710181198</v>
+        <v>0.07003762954493098</v>
       </c>
       <c r="F5">
-        <v>4.698438562016946</v>
+        <v>5.460821634628928</v>
       </c>
       <c r="G5">
-        <v>0.002600300614242927</v>
+        <v>0.0008719515962380631</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,16 +586,16 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.3544976323222357</v>
+        <v>0.5780378402893405</v>
       </c>
       <c r="K5">
-        <v>0.5953450789477301</v>
+        <v>0.7106701154697248</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.1758291239060146</v>
+        <v>0.03031555436379918</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6173109879977119</v>
+        <v>0.7022684699908837</v>
       </c>
       <c r="C6">
-        <v>0.0509199330842165</v>
+        <v>0.07596808808528976</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.07860811683959668</v>
+        <v>0.06941683766458695</v>
       </c>
       <c r="F6">
-        <v>4.690381705636327</v>
+        <v>5.431900301351391</v>
       </c>
       <c r="G6">
-        <v>0.002600517839800272</v>
+        <v>0.0008723194471593316</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,16 +633,16 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3535423246287905</v>
+        <v>0.5749588319149552</v>
       </c>
       <c r="K6">
-        <v>0.5943706415615679</v>
+        <v>0.7057823208936611</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.1761547723779042</v>
+        <v>0.02999518568188364</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6240486236306708</v>
+        <v>0.7352162834045259</v>
       </c>
       <c r="C7">
-        <v>0.05166868134236324</v>
+        <v>0.08004225566402567</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.0783056691694064</v>
+        <v>0.07375617659675626</v>
       </c>
       <c r="F7">
-        <v>4.746370486720821</v>
+        <v>5.63327428181222</v>
       </c>
       <c r="G7">
-        <v>0.002599023599268165</v>
+        <v>0.0008697781566083178</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,16 +680,16 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3601662306003561</v>
+        <v>0.5963827978999348</v>
       </c>
       <c r="K7">
-        <v>0.6011853372159521</v>
+        <v>0.7398509350343829</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.1739278414674299</v>
+        <v>0.03227187161569667</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6549978773882685</v>
+        <v>0.8842173929125181</v>
       </c>
       <c r="C8">
-        <v>0.0551210702329854</v>
+        <v>0.09856698870045477</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.07735068191974648</v>
+        <v>0.09375561446692515</v>
       </c>
       <c r="F8">
-        <v>4.995093762578335</v>
+        <v>6.539564844955464</v>
       </c>
       <c r="G8">
-        <v>0.002592764037859781</v>
+        <v>0.0008588482423930173</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,16 +727,16 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.3892295571644553</v>
+        <v>0.6924518530913701</v>
       </c>
       <c r="K8">
-        <v>0.6325238172265131</v>
+        <v>0.8940785946049061</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.1649298918784243</v>
+        <v>0.04375202502755826</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7200989714193327</v>
+        <v>1.193084160296792</v>
       </c>
       <c r="C9">
-        <v>0.06243336433900026</v>
+        <v>0.1374969706505169</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.07686615645343409</v>
+        <v>0.1371251252975618</v>
       </c>
       <c r="F9">
-        <v>5.489195657756426</v>
+        <v>8.403446196008872</v>
       </c>
       <c r="G9">
-        <v>0.00258168100224504</v>
+        <v>0.00083830062704078</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,16 +774,16 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.4456845865418586</v>
+        <v>0.8889117095569219</v>
       </c>
       <c r="K9">
-        <v>0.6985731764152945</v>
+        <v>1.214596734160438</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.1502832021244878</v>
+        <v>0.07277216336234638</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.7706574354922111</v>
+        <v>1.434255566676882</v>
       </c>
       <c r="C10">
-        <v>0.06814568469188487</v>
+        <v>0.1683988516339952</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.07737900287082411</v>
+        <v>0.1727471615014338</v>
       </c>
       <c r="F10">
-        <v>5.856510694280814</v>
+        <v>9.851346488025172</v>
       </c>
       <c r="G10">
-        <v>0.00257425618660263</v>
+        <v>0.0008235959068565345</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,16 +821,16 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.4868948686802241</v>
+        <v>1.041023009905757</v>
       </c>
       <c r="K10">
-        <v>0.7499489435336955</v>
+        <v>1.465627829992144</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.1413678874630193</v>
+        <v>0.0995935676470534</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.7942596460384834</v>
+        <v>1.548134090192718</v>
       </c>
       <c r="C11">
-        <v>0.07082031444159043</v>
+        <v>0.1831461438118112</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.07780590753381134</v>
+        <v>0.1900997636338495</v>
       </c>
       <c r="F11">
-        <v>6.024640007059133</v>
+        <v>10.53387412895012</v>
       </c>
       <c r="G11">
-        <v>0.002571032456447979</v>
+        <v>0.0008169527266994646</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.5055978666854628</v>
+        <v>1.112665677221145</v>
       </c>
       <c r="K11">
-        <v>0.7739508774728279</v>
+        <v>1.5843943906101</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.1377168170968464</v>
+        <v>0.1134057792048448</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.8032845343510928</v>
+        <v>1.591960908555137</v>
       </c>
       <c r="C12">
-        <v>0.07184422804166957</v>
+        <v>0.1888485897469536</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.07799581044957549</v>
+        <v>0.1968691271038381</v>
       </c>
       <c r="F12">
-        <v>6.088462227659818</v>
+        <v>10.79643184166667</v>
       </c>
       <c r="G12">
-        <v>0.002569833694270033</v>
+        <v>0.0008144399943048546</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,16 +915,16 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.512674937000952</v>
+        <v>1.140221328380363</v>
       </c>
       <c r="K12">
-        <v>0.7831312883492103</v>
+        <v>1.630142258270325</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.1363927686342503</v>
+        <v>0.1189098597315805</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.8013369741522354</v>
+        <v>1.582488907752975</v>
       </c>
       <c r="C13">
-        <v>0.07162321428810969</v>
+        <v>0.1876148884673086</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.07795364885959799</v>
+        <v>0.1954018134054465</v>
       </c>
       <c r="F13">
-        <v>6.074709961393125</v>
+        <v>10.73969129061271</v>
       </c>
       <c r="G13">
-        <v>0.002570090893085165</v>
+        <v>0.0008149810927499031</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,16 +962,16 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.5111509860451804</v>
+        <v>1.134266464677239</v>
       </c>
       <c r="K13">
-        <v>0.7811500464934227</v>
+        <v>1.620253193842103</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.1366753171004262</v>
+        <v>0.117711536863716</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.7950003773643459</v>
+        <v>1.551724998779036</v>
       </c>
       <c r="C14">
-        <v>0.07090432930617396</v>
+        <v>0.1836128051348282</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.07782096259661841</v>
+        <v>0.1906524982608246</v>
       </c>
       <c r="F14">
-        <v>6.029887550419119</v>
+        <v>10.5553885656991</v>
       </c>
       <c r="G14">
-        <v>0.002570933393359072</v>
+        <v>0.0008167459678893714</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,16 +1009,16 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.5061802032765002</v>
+        <v>1.114923689730659</v>
       </c>
       <c r="K14">
-        <v>0.7747043196327184</v>
+        <v>1.588141864171178</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.1376067116666597</v>
+        <v>0.1138528511831378</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.7911304069853031</v>
+        <v>1.532976181943923</v>
       </c>
       <c r="C15">
-        <v>0.07046544019416956</v>
+        <v>0.1811773836870429</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.07774337859109437</v>
+        <v>0.1877703136600957</v>
       </c>
       <c r="F15">
-        <v>6.002452944076822</v>
+        <v>10.44305321819047</v>
       </c>
       <c r="G15">
-        <v>0.002571452309756112</v>
+        <v>0.0008178272621260145</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.503134786895572</v>
+        <v>1.103133579265972</v>
       </c>
       <c r="K15">
-        <v>0.7707680493541602</v>
+        <v>1.568577231773673</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.1381848512019808</v>
+        <v>0.1115263090892711</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.7691271539270588</v>
+        <v>1.426905774235678</v>
       </c>
       <c r="C16">
-        <v>0.06797243484888327</v>
+        <v>0.1674505017499541</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.07735503385477926</v>
+        <v>0.1716389447129103</v>
       </c>
       <c r="F16">
-        <v>5.845544432214496</v>
+        <v>9.807276756987079</v>
       </c>
       <c r="G16">
-        <v>0.002574469949735584</v>
+        <v>0.0008240306745561271</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,16 +1103,16 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.4856717835884581</v>
+        <v>1.036396320116125</v>
       </c>
       <c r="K16">
-        <v>0.7483931130071255</v>
+        <v>1.457967689952852</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.1416146645663066</v>
+        <v>0.09872675800619568</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.7557836742610675</v>
+        <v>1.362972098178631</v>
       </c>
       <c r="C17">
-        <v>0.06646264584871631</v>
+        <v>0.1592186583585118</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.07716666965088592</v>
+        <v>0.1620588572902086</v>
       </c>
       <c r="F17">
-        <v>5.749555930342751</v>
+        <v>9.423805851767497</v>
       </c>
       <c r="G17">
-        <v>0.002576360488160702</v>
+        <v>0.0008278455760828238</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,16 +1150,16 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.4749482559206797</v>
+        <v>0.9961311892403444</v>
       </c>
       <c r="K17">
-        <v>0.7348288696806833</v>
+        <v>1.391360587336436</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.143822611712519</v>
+        <v>0.09131500963780326</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.7481655730355214</v>
+        <v>1.326584445163036</v>
       </c>
       <c r="C18">
-        <v>0.06560140568035422</v>
+        <v>0.1545475734541242</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.07707652649373742</v>
+        <v>0.1566544112758486</v>
       </c>
       <c r="F18">
-        <v>5.694442997075214</v>
+        <v>9.205444970836311</v>
       </c>
       <c r="G18">
-        <v>0.002577462365352468</v>
+        <v>0.0008300443951375043</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,16 +1197,16 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.468776189882135</v>
+        <v>0.9731969627689239</v>
       </c>
       <c r="K18">
-        <v>0.7270864112724382</v>
+        <v>1.35347233015122</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.1451306208110044</v>
+        <v>0.0872007084578108</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.745595939400971</v>
+        <v>1.314327456180166</v>
       </c>
       <c r="C19">
-        <v>0.06531102811284484</v>
+        <v>0.1529764314777253</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.07704911906456502</v>
+        <v>0.1548417991430213</v>
       </c>
       <c r="F19">
-        <v>5.675799192780232</v>
+        <v>9.1318711175212</v>
       </c>
       <c r="G19">
-        <v>0.002577837934061393</v>
+        <v>0.000830789770621071</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,16 +1244,16 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.4666856884451249</v>
+        <v>0.9654684238170859</v>
       </c>
       <c r="K19">
-        <v>0.724475118228753</v>
+        <v>1.340713293382464</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.14558001562634</v>
+        <v>0.08583205508147351</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.75719823673316</v>
+        <v>1.369737363013115</v>
       </c>
       <c r="C20">
-        <v>0.06662262432820398</v>
+        <v>0.1600882374917774</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.07718483492121209</v>
+        <v>0.1630675041405922</v>
       </c>
       <c r="F20">
-        <v>5.759763973704452</v>
+        <v>9.464394632401252</v>
       </c>
       <c r="G20">
-        <v>0.002576157738628859</v>
+        <v>0.0008274390234890265</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.4760902191629839</v>
+        <v>1.00039367002887</v>
       </c>
       <c r="K20">
-        <v>0.7362666606291555</v>
+        <v>1.398406523848593</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.1435836307311629</v>
+        <v>0.09208832677218126</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.7968592172572926</v>
+        <v>1.560741105905947</v>
       </c>
       <c r="C21">
-        <v>0.07111518107006987</v>
+        <v>0.1847849480765547</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.07785916601609699</v>
+        <v>0.192041812151718</v>
       </c>
       <c r="F21">
-        <v>6.043048713173619</v>
+        <v>10.60940566130211</v>
       </c>
       <c r="G21">
-        <v>0.002570685334604822</v>
+        <v>0.0008162275350498405</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.5076403802665084</v>
+        <v>1.12059291637047</v>
       </c>
       <c r="K21">
-        <v>0.7765950997554398</v>
+        <v>1.597551733128569</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.1373315470442531</v>
+        <v>0.1149784414281765</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.8232887463058773</v>
+        <v>1.689733565993777</v>
       </c>
       <c r="C22">
-        <v>0.07411603615179274</v>
+        <v>0.2016242490399378</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.0784646949896235</v>
+        <v>0.2121538432212908</v>
       </c>
       <c r="F22">
-        <v>6.229099888522228</v>
+        <v>11.38201847640283</v>
       </c>
       <c r="G22">
-        <v>0.002567236944754715</v>
+        <v>0.0008089149139980079</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,16 +1385,16 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.5282295013017233</v>
+        <v>1.201677214776396</v>
       </c>
       <c r="K22">
-        <v>0.8034851423118994</v>
+        <v>1.732280660911613</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.1335867946368765</v>
+        <v>0.1315588338189002</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.8091360710878348</v>
+        <v>1.620468621601049</v>
       </c>
       <c r="C23">
-        <v>0.07250845168898934</v>
+        <v>0.1925658695530643</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.07812629782966596</v>
+        <v>0.2012995815749363</v>
       </c>
       <c r="F23">
-        <v>6.129715647984085</v>
+        <v>10.96719033973295</v>
       </c>
       <c r="G23">
-        <v>0.002569065733258047</v>
+        <v>0.0008128178289639187</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,16 +1432,16 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.5172431972825962</v>
+        <v>1.158142050082915</v>
       </c>
       <c r="K23">
-        <v>0.7890844129784398</v>
+        <v>1.659911461400782</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.1355540855429638</v>
+        <v>0.1225454313153111</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.7565585472364376</v>
+        <v>1.366677646120962</v>
       </c>
       <c r="C24">
-        <v>0.06655027702093719</v>
+        <v>0.1596949105498737</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.077176565898462</v>
+        <v>0.1626111756580713</v>
       </c>
       <c r="F24">
-        <v>5.755148693078667</v>
+        <v>9.446037947513332</v>
       </c>
       <c r="G24">
-        <v>0.002576249355078245</v>
+        <v>0.0008276228082839772</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,16 +1479,16 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.4755739593708483</v>
+        <v>0.998465939069888</v>
       </c>
       <c r="K24">
-        <v>0.7356164615663658</v>
+        <v>1.395219802850477</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.1436915537257644</v>
+        <v>0.091738255888556</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7020111864763692</v>
+        <v>1.107351341596654</v>
       </c>
       <c r="C25">
-        <v>0.06039618457617735</v>
+        <v>0.1266188179843226</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.07684630222940214</v>
+        <v>0.1248318332181917</v>
       </c>
       <c r="F25">
-        <v>5.354804115141405</v>
+        <v>7.887489084100196</v>
       </c>
       <c r="G25">
-        <v>0.002584552557468011</v>
+        <v>0.0008437787230208398</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,16 +1526,16 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.4304633577392849</v>
+        <v>0.8346280630020999</v>
       </c>
       <c r="K25">
-        <v>0.6802082526805862</v>
+        <v>1.125519787964492</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.153922724756546</v>
+        <v>0.06407998736381693</v>
       </c>
       <c r="N25">
         <v>0</v>
